--- a/Resources/SalaryCap.xlsx
+++ b/Resources/SalaryCap.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jake\Desktop\OKCProject\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jake\Desktop\OKCProject\OKCProject18\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{533651C8-2670-4AD4-A63D-8EC74756A9E4}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{193A2FB7-94D6-4855-86B8-B9AB739D3D15}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,25 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
-  <si>
-    <t>1984-85</t>
-  </si>
-  <si>
-    <t>1985-86</t>
-  </si>
-  <si>
-    <t>1986-87</t>
-  </si>
-  <si>
-    <t>1987-88</t>
-  </si>
-  <si>
-    <t>1988-89</t>
-  </si>
-  <si>
-    <t>1989-90</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>1990-91</t>
   </si>
@@ -983,10 +965,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -998,13 +980,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1012,10 +994,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>3600000</v>
+        <v>11871000</v>
       </c>
       <c r="C2" s="2">
-        <v>7934034</v>
+        <v>20658962</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1023,10 +1005,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>4233000</v>
+        <v>12500000</v>
       </c>
       <c r="C3" s="2">
-        <v>9153509</v>
+        <v>21113943</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1034,10 +1016,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>4945000</v>
+        <v>14000000</v>
       </c>
       <c r="C4" s="2">
-        <v>10317292</v>
+        <v>22972126</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1045,10 +1027,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>6164000</v>
+        <v>15175000</v>
       </c>
       <c r="C5" s="2">
-        <v>12354015</v>
+        <v>24268416</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1056,10 +1038,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>7232000</v>
+        <v>15964000</v>
       </c>
       <c r="C6" s="2">
-        <v>13829137</v>
+        <v>24833276</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1067,10 +1049,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>9802000</v>
+        <v>23000000</v>
       </c>
       <c r="C7" s="2">
-        <v>17783913</v>
+        <v>34761086</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1078,10 +1060,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>11871000</v>
+        <v>24363000</v>
       </c>
       <c r="C8" s="2">
-        <v>20658962</v>
+        <v>35973807</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1089,10 +1071,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>12500000</v>
+        <v>26900000</v>
       </c>
       <c r="C9" s="2">
-        <v>21113943</v>
+        <v>39119783</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1100,10 +1082,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>14000000</v>
+        <v>30000000</v>
       </c>
       <c r="C10" s="2">
-        <v>22972126</v>
+        <v>42686775</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1111,10 +1093,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>15175000</v>
+        <v>34000000</v>
       </c>
       <c r="C11" s="2">
-        <v>24268416</v>
+        <v>46798454</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1122,10 +1104,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>15964000</v>
+        <v>35500000</v>
       </c>
       <c r="C12" s="2">
-        <v>24833276</v>
+        <v>47522364</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1133,10 +1115,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>23000000</v>
+        <v>42500000</v>
       </c>
       <c r="C13" s="2">
-        <v>34761086</v>
+        <v>56008788</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1144,10 +1126,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>24363000</v>
+        <v>40271000</v>
       </c>
       <c r="C14" s="2">
-        <v>35973807</v>
+        <v>51890436</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1155,10 +1137,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>26900000</v>
+        <v>43840000</v>
       </c>
       <c r="C15" s="2">
-        <v>39119783</v>
+        <v>55016264</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1166,10 +1148,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>30000000</v>
+        <v>43870000</v>
       </c>
       <c r="C16" s="2">
-        <v>42686775</v>
+        <v>53243484</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1177,10 +1159,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>34000000</v>
+        <v>49500000</v>
       </c>
       <c r="C17" s="2">
-        <v>46798454</v>
+        <v>58202129</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1188,10 +1170,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>35500000</v>
+        <v>53135000</v>
       </c>
       <c r="C18" s="2">
-        <v>47522364</v>
+        <v>60741551</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1199,10 +1181,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="2">
-        <v>42500000</v>
+        <v>55630000</v>
       </c>
       <c r="C19" s="2">
-        <v>56008788</v>
+        <v>61244588</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1210,10 +1192,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="2">
-        <v>40271000</v>
+        <v>58680000</v>
       </c>
       <c r="C20" s="2">
-        <v>51890436</v>
+        <v>64832889</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1221,10 +1203,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="2">
-        <v>43840000</v>
+        <v>57700000</v>
       </c>
       <c r="C21" s="2">
-        <v>55016264</v>
+        <v>62718922</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1232,10 +1214,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="2">
-        <v>43870000</v>
+        <v>58044000</v>
       </c>
       <c r="C22" s="2">
-        <v>53243484</v>
+        <v>61160859</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1243,10 +1225,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="2">
-        <v>49500000</v>
+        <v>58044000</v>
       </c>
       <c r="C23" s="2">
-        <v>58202129</v>
+        <v>59928600</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1254,10 +1236,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="2">
-        <v>53135000</v>
+        <v>58044000</v>
       </c>
       <c r="C24" s="2">
-        <v>60741551</v>
+        <v>59063916</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1265,10 +1247,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="2">
-        <v>55630000</v>
+        <v>58679000</v>
       </c>
       <c r="C25" s="2">
-        <v>61244588</v>
+        <v>58753235</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1276,10 +1258,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="2">
-        <v>58680000</v>
+        <v>63065000</v>
       </c>
       <c r="C26" s="2">
-        <v>64832889</v>
+        <v>63065000</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1287,10 +1269,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="2">
-        <v>57700000</v>
+        <v>70000000</v>
       </c>
       <c r="C27" s="2">
-        <v>62718922</v>
+        <v>69126577</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1298,10 +1280,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="2">
-        <v>58044000</v>
+        <v>94143000</v>
       </c>
       <c r="C28" s="2">
-        <v>61160859</v>
+        <v>91334866</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1309,75 +1291,9 @@
         <v>27</v>
       </c>
       <c r="B29" s="2">
-        <v>58044000</v>
-      </c>
-      <c r="C29" s="2">
-        <v>59928600</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="2">
-        <v>58044000</v>
-      </c>
-      <c r="C30" s="2">
-        <v>59063916</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="2">
-        <v>58679000</v>
-      </c>
-      <c r="C31" s="2">
-        <v>58753235</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="2">
-        <v>63065000</v>
-      </c>
-      <c r="C32" s="2">
-        <v>63065000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="2">
-        <v>70000000</v>
-      </c>
-      <c r="C33" s="2">
-        <v>69126577</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="2">
-        <v>94143000</v>
-      </c>
-      <c r="C34" s="2">
-        <v>91334866</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" s="2">
         <v>99093000</v>
       </c>
-      <c r="C35" s="3"/>
+      <c r="C29" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
